--- a/results/R_gene_lists/d14_LEC_ova_markers.xlsx
+++ b/results/R_gene_lists/d14_LEC_ova_markers.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="neg" r:id="rId3" sheetId="1"/>
-    <sheet name="pos" r:id="rId4" sheetId="2"/>
+    <sheet name="low" r:id="rId3" sheetId="1"/>
+    <sheet name="high" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -393,7 +393,7 @@
     <t>119</t>
   </si>
   <si>
-    <t>neg</t>
+    <t>low</t>
   </si>
   <si>
     <t>Malat1</t>
@@ -945,7 +945,7 @@
     <t>183</t>
   </si>
   <si>
-    <t>pos</t>
+    <t>high</t>
   </si>
   <si>
     <t>Tgfa</t>
